--- a/processed-training-data/2-EXTRACT-CSV/PRE-TRAIN-LEFT-STEPS.xlsx
+++ b/processed-training-data/2-EXTRACT-CSV/PRE-TRAIN-LEFT-STEPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\vr-kat-project-python-2\processed-training-data\2-EXTRACT-CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0980CC-F863-45EA-B7B3-844C4105B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A721B-8C20-4A14-84C8-8BD283D2AC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9678,8 +9678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3090"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3058" workbookViewId="0">
-      <selection activeCell="M3068" sqref="M3068"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
